--- a/memorylist.xlsx
+++ b/memorylist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blu3n\OneDrive\Belgeler\GitHub\Clustering-with-Limited-Memory-Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A7B7BB-CD35-48B1-980C-0697C1513B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA2D9B6-9F70-4050-A1C1-1A85329F9B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3390" yWindow="915" windowWidth="20940" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +499,7 @@
         <v>1.698293924331665</v>
       </c>
       <c r="E2" s="4">
-        <v>1.007156133651733</v>
+        <v>1.3357187112172444</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>0.34656000137329102</v>
       </c>
       <c r="E3" s="4">
-        <v>1.934816837310791</v>
+        <v>1.6449389457702637</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -533,7 +533,7 @@
         <v>1.0641829967498779</v>
       </c>
       <c r="E4" s="4">
-        <v>1.313416004180908</v>
+        <v>1.4378053347269695</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -550,7 +550,7 @@
         <v>0.44007492065429688</v>
       </c>
       <c r="E5" s="4">
-        <v>1.6317629814147949</v>
+        <v>1.5439209938049316</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -567,7 +567,7 @@
         <v>1.2492160797119141</v>
       </c>
       <c r="E6" s="4">
-        <v>1.2947051525115969</v>
+        <v>1.4315683841705322</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -584,7 +584,7 @@
         <v>0.22103786468505859</v>
       </c>
       <c r="E7" s="4">
-        <v>1.9703209400177</v>
+        <v>1.6567736466725667</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -601,7 +601,7 @@
         <v>0.23553991317749021</v>
       </c>
       <c r="E8" s="4">
-        <v>1.9638209342956541</v>
+        <v>1.6546069780985515</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
         <v>1.652827517191569</v>
       </c>
       <c r="E9" s="4">
-        <v>-4.5072989463806152</v>
+        <v>2.5024329821268698</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
         <v>7.9514026641845703E-2</v>
       </c>
       <c r="E10" s="4">
-        <v>2.3553869724273682</v>
+        <v>1.7851289908091228</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>0.417572021484375</v>
       </c>
       <c r="E11" s="4">
-        <v>1.783288955688477</v>
+        <v>1.5944296518961589</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
         <v>1.997844934463501</v>
       </c>
       <c r="E12" s="4">
-        <v>1.242195844650269</v>
+        <v>1.4140652815500896</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
         <v>1.916831970214844</v>
       </c>
       <c r="E13" s="4">
-        <v>0.83312582969665527</v>
+        <v>1.277708609898885</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>1.9338340759277339</v>
       </c>
       <c r="E14" s="4">
-        <v>0.89263510704040527</v>
+        <v>1.297545035680135</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -720,7 +720,7 @@
         <v>1.89732813835144</v>
       </c>
       <c r="E15" s="4">
-        <v>0.99465298652648926</v>
+        <v>1.3315509955088298</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>1.940834045410156</v>
       </c>
       <c r="E16" s="4">
-        <v>1.004655122756958</v>
+        <v>1.3348850409189861</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -754,7 +754,7 @@
         <v>1.9913439750671389</v>
       </c>
       <c r="E17" s="4">
-        <v>0.83512592315673828</v>
+        <v>1.2783753077189128</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>1.999846935272217</v>
       </c>
       <c r="E18" s="4">
-        <v>1.050663948059082</v>
+        <v>1.3502213160196941</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -788,7 +788,7 @@
         <v>2.0023460388183589</v>
       </c>
       <c r="E19" s="4">
-        <v>0.94014286994934082</v>
+        <v>1.3133809566497803</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
         <v>1.996845960617065</v>
       </c>
       <c r="E20" s="4">
-        <v>0.90013694763183594</v>
+        <v>1.3000456492106121</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
         <v>2.2688910961151119</v>
       </c>
       <c r="E21" s="4">
-        <v>0.63309001922607422</v>
+        <v>1.2110300064086914</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
         <v>5.900883674621582E-2</v>
       </c>
       <c r="E22" s="4">
-        <v>2.427901983261108</v>
+        <v>1.8093006610870361</v>
       </c>
     </row>
   </sheetData>
